--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#UNC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A4A702-A2F4-4C73-8C7C-FCD267AA4036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1467A738-5B4E-4843-90EB-BBA8B7BC56D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3830" yWindow="1090" windowWidth="33150" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="71">
   <si>
     <t>Year</t>
   </si>
@@ -288,6 +291,12 @@
   </si>
   <si>
     <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Birth of Mikis Theodorakis</t>
+  </si>
+  <si>
+    <t>200th Anniversary - Death of Laskarina Bouboulina</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -737,9 +762,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1014,7 +1039,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38:D39"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1888,12 +1913,22 @@
       <c r="A35" s="6">
         <v>2025</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="8"/>
+      <c r="D35" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
       <c r="H35" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1903,12 +1938,22 @@
       <c r="A36" s="6">
         <v>2025</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="8"/>
+      <c r="D36" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
       <c r="H36" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1921,11 +1966,28 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G6 G8:G23">
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G6 G8:G23">
+  <conditionalFormatting sqref="G6 G3 G8:G23">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1937,12 +1999,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1954,12 +2033,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G26:G27">
     <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1971,12 +2050,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="G28">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1988,12 +2067,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G27">
+  <conditionalFormatting sqref="G29">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2005,12 +2084,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G30">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2022,12 +2101,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G31">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2039,12 +2118,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G32">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2056,12 +2135,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="G33">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2073,12 +2152,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G34">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2090,12 +2169,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G25">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2107,12 +2186,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+  <conditionalFormatting sqref="G24">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2124,42 +2203,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2176,7 +2221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
   </conditionalFormatting>
